--- a/biology/Botanique/Aspidosperma_polyneuron/Aspidosperma_polyneuron.xlsx
+++ b/biology/Botanique/Aspidosperma_polyneuron/Aspidosperma_polyneuron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspidosperma polyneuron, connu également sous les noms de palo rosa, perobá, peroba rosa, ybirá romí, est une espèce de plantes à fleurs de la famille des Apocynacées. C'est un arbre originaire de l'extrême nord-est de l'Argentine, du Brésil et du Paraguay. Il est très utilisé en apiculture comme espèce mellifère.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aspidosperma peroba Saldanha da Gama
 Aspidosperma dugandii Standl.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il croît jusqu'à la hauteur de 40 m, à raison de 50 cm/an ; dans la forêt, c'est un arbre émergeant.
 Il fleurit de septembre à novembre, et fructifie d'octobre à novembre.
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois est de couleur rose foncé, avec un poids spécifique de 0,7 g/cm3. Il est facile à travailler. Tant en Argentine qu'au Paraguay et au Brésil, on l'utilise pour la construction, les meubles, la charpenterie, les parquets.
 </t>
